--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/43_Karabük_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/43_Karabük_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1920109D-7E51-40B0-A70A-89188218A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CFDDCC-F01C-4205-BF22-AEEF3B53F2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{0E262722-4FF4-49D9-8D0D-43C7BACB9E40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{710B2A71-F492-41E3-B6EB-A3EC59481D96}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="113" r:id="rId1"/>
@@ -970,14 +970,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CACAF026-6E80-44BD-B56D-24D20893A7D6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B3F4CCED-2CA4-4EB7-B05A-366631065EE5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{684AB957-F959-4C6B-949F-16B97A556505}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{918FFBDD-FC5F-4ECA-942F-DE0872CA223C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2D541261-387B-45D3-8356-571B6627A87B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2DDA587C-D6CB-445B-9FAF-BB8B83D7FD44}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6C91669C-0F77-4198-9567-84CD281307B6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DB80527F-2981-48E9-AEC8-5BC3711E537B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{662079E2-C5E9-4178-951C-096BA2DE33E0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{56E300C9-4C91-47CE-AA88-DA3CA7E24F11}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F1F36FD6-C7CE-4BE3-8502-28248EB017CA}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{579D35BC-B080-45A0-9E6D-B71E2D8D2E0B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D5633CBB-E3A1-4AA9-B635-E3A0BC4AE3AD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4D172F1B-85A5-4700-A45D-AD044EE8A8E4}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{C38FD590-41B1-4409-ADBE-B6B216E6B4C6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{806D00C0-076E-4A9C-AD96-7FFE79A96B90}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E2E1C6-DCE8-4681-9F70-E9439F34EBC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E122465-409B-4960-80B9-A7F9E6AD979B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1790592A-3717-4D16-A564-C76909F8B938}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4308A3A3-BDF8-4425-BA17-81278F7D25D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B2F0FD9-3984-47C5-B4C1-E3596351DAF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B53ADE4F-7441-436D-83A9-3133B4317F61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABF1ABBB-4D0D-4217-9EDF-9AF7CE9B574D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10C0D3F4-0CA1-4130-BBFA-F9B18F3F0665}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2AFD42D-B591-4649-B156-46DEB79D4320}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DB9FA22-D521-43B4-8057-B782FB1CB737}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF77BE95-75BC-4F22-AD07-03C48318A4DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A8E79C3E-519B-4965-B54D-9B2754F906E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D44A583-A56B-4285-A185-6CF9635A9610}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7047498F-3F3C-49B8-BDBF-BF8A0B25EB68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE341F1C-AC4A-452D-8DFF-81AB0B3ED816}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BA81D52-A45B-467F-909E-B4888A564464}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E754DBCF-D1D3-4604-A96E-D480E7B2D059}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43DB2C0F-DFDB-47BC-8949-49A201DD4874}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E0035D4-A602-4109-9A85-96234B68DEB6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C6A46F7-A546-453F-B54D-359ECFDECE50}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C18B9A63-28DD-4B1C-9479-80E41633FCBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32A81779-735B-499E-ADA8-52A477220E8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC30EA2B-F545-447E-8B3B-0DA803EEDE6E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9B297FF3-BB91-4514-92A7-DBCFDA5D9D9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0204C80F-953D-4E13-BE31-797EBAFB5BC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46ADCB28-8E18-43C8-A75E-C454E0D69F81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D81B0DC-596A-496C-B0C1-B2B7E12D1B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC8C575-BA07-4768-ACAA-B35BD43E7B5A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3913,18 +3913,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4A628C0-08B1-46CC-9BC2-8726EDC58823}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE9076A9-A10D-45A4-8ED6-F4EFD9AA4910}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{900034DA-EF4D-4E25-BA9A-D6700D2D522C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8D9D722-56D2-4CB8-931C-0F2117B1D5AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C05107E-7BD4-44EC-82DD-18CC6B8954A2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D67CFF0-7547-41F1-B927-6FF529D26E0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E253FA9C-DA59-4975-A78A-9148EA168175}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61B7FFF3-F675-4D39-8F03-A6A81CF3C268}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA6E8F16-E8A0-4D8B-ABED-27D9F5301577}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{59F3CD94-CE39-4A90-8E15-D29679A77B33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BD94268-2841-4797-87DC-343989D56786}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2AC3B42-AC5E-4C3E-A6DB-E0A582549006}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA3EBEBB-CE06-4898-8864-DEB28C195A60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79585768-D2E9-4FDF-9BD0-F7D6992611F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B93C3C8-9FCE-457D-809F-1A215E9EB5E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2D00494-7D10-4E92-AF60-66523A05C621}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{479B4DDF-425E-4A23-87E9-50FC76F06F0E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5DE26B54-F07A-476A-9D2B-DBC7895D2127}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E1D9DF5-6CBA-49BD-8AFC-1F7EC7DDC536}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DFEC84B-F7AE-40C4-932E-0D5F70CB6F55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{382A69B4-57AC-4914-A1F8-5E269CA8AD4A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0ECCB195-319B-48A4-8C10-67513DAD27F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36CCD692-2A4E-43D0-817C-80EEE73EF266}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF91C5C0-89FB-4B50-B996-55BF7D0CFAF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3937,7 +3937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B6EFF-A8AF-4252-A484-2B888D0EC71F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F94646-71D8-4E00-A219-9E7259F9FD27}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5230,18 +5230,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3F8DD14-940A-4C7F-AC50-0BB4C8FEFACD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C8F22DD-1610-42A6-8634-DEED600FC96A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{127ED7AC-C942-45F5-A263-2818AFF95A1A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{605FCC3B-A015-4347-91A5-F8B91697B867}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18A6EDA9-439C-44A3-B62C-08EE9D71A8A7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{11CEF245-5BA8-42A2-853B-F135B11650E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50A85EA0-21CE-4CA2-8D04-E7EAFF088DD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9199AB23-BEE8-4B1C-A055-751533DCF859}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64DD3886-3A3F-406A-843C-01D667726AEF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{871C274B-B96C-4437-9F1D-47636928F5D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B643C7B6-9D2F-4DC4-B16A-CF46A02C5A8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E606F28-B719-42A9-A765-D1486ED42CD3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3BB0191-9966-4E35-9C6C-F9931FECA6ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16C0129A-A224-4939-BF71-B274422A7472}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9965D565-1DD1-430F-847A-DD74DBD8C663}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{944A1DB6-1828-44CD-9AAC-9F2BA8847ACE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E405659F-183A-4814-A6DA-87131FA314C8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA7256E3-66D3-45D1-8A4F-3797EB7848FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{588BC1CA-EE27-4A53-AC12-B21C87D0D9FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10B244C3-C5F9-4D16-98D9-2248637B90E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63C62510-B83D-4E87-810E-CC96A547575A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EEC6BA76-BC8B-451D-851F-F8BEFBE7210A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDDDB002-FA5C-4EEA-8833-9AF04295AA16}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49EFCF3B-CF7A-4B92-BDC9-F0D8128AC1FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5254,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9FF5F-8125-45CF-9C23-31AD883E3DFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D665B-01BB-4342-9670-D447795B550E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6541,18 +6541,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98F9F6F4-5E97-4E2F-917A-FBD6F686FE21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD700089-39FA-4B6D-B8C7-0350A60FB967}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A5AD9E88-CCDE-4D6E-9839-EF999CF74840}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0E8F519-9E73-4167-9E08-DED2CBABA4F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5B99624-70CE-4DBC-A3CF-DA6072F35445}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{731E6DE4-5AD1-45BB-B4F5-78C07F1E61C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C28A8109-324F-42AF-BFCE-57B899B57658}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F51C56B4-743E-4108-8FBF-5E9E983DCDD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35CF7B0D-322E-4BD3-930A-C06E74C88587}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BB1BE1D0-C58B-4479-83D0-10B5752C1A10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACA2735B-8A37-43DC-AD9C-3E94BA2CEE74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA8E96C6-0AD9-442C-BAA1-6247CFBD7F3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEC21AAE-166A-4E24-9F09-8783C92EA69A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1028FA6-1639-4547-BF3D-7621DDDB7F8F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BEB1FC4-E6EE-4E55-8FF9-5B84006C42EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2E0703E-3AA2-4A64-A2EB-81A0E814F900}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63747590-A45F-4A78-A8D6-9C15B59970EE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC8FFE90-3813-48D1-903A-C254859F1EF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{182989C2-B61B-4CD4-A63A-43FF71108318}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4EFD35A-EF50-4F80-AB1F-3C00E48E2ED9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F36631AB-7DEB-4DE7-866F-3900A243191B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D7FFEDDD-DED3-4503-AE15-5C31A47D7746}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EA339AD-AF26-4323-A49C-48FB32184063}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{994EC47F-EFA3-4984-847F-D6F3A2BC5FA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6565,7 +6565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335E1795-8A3F-47AF-AE5A-126194C80B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13393-4DD1-42C5-A18F-6260EBAB0798}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7814,18 +7814,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AFB468A-9DBD-44D6-8DE4-713B586A39E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C789C2A5-B4AB-44AB-B1F0-8862A6D3B252}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47FE6D99-B945-437F-90AE-B1C5A5808AF9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C4F21B6-EDC4-48A6-9F98-3DEF0C3A657E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5B99AB0-126F-477F-9892-38CE892CB6BA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{34B89171-0B9E-4AED-92B8-E6DEC08CF6D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA8F3042-3A55-498D-8381-47F10B95A7A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF64F488-9EFE-429E-AFC2-535A38B2355D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4C9E093-B3E5-490F-8C8C-5763CD15ED69}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{820D86F3-0FC5-4075-9927-AF83369277D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4D5FD46-A124-4CBC-8AD7-F9FE8B59D19A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA73FFA6-65EB-448C-86E3-22EF0F3F312B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{214A40B2-4CC9-4459-A55E-F02ABFC45E44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DB566FA-647C-4DF6-9F6F-C3FC94D0A0DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29CFC4DD-46D8-45EB-8AB4-96873F32394F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BE69352-BEEE-4440-BB75-8B9521A79C2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{154066E1-ED97-418D-B004-B3792708B821}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0999A91-69A4-41D5-A11A-98B074F3B4F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9239922F-9CA9-4D70-AB8C-DAA88FDCEDB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3EB88B9B-2D1E-488E-AD1B-FCC303FEEB80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5771472-B413-47FA-B980-B3DE31C49DE0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E107B7FE-F575-4620-ADC6-330FC374FE26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26D3D399-1A87-4A36-B86D-A8A24A6A13D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA0EE011-2B77-4E33-A767-5304A0B58661}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7838,7 +7838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFD62F-0657-403C-92AD-78337C45BCF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59636CF4-208B-4AEF-888E-4B6E6AB06476}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9087,18 +9087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CC28144-4D6E-4E44-B3B9-51FE83C357EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF2D55C-6509-453C-BB4B-FB7F94371E76}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D15BE387-8CF8-43D0-9271-3CB5DC652674}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{308FD48D-B94E-45E3-A999-2420DC98832D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9045F1C3-5A4E-45B7-A808-178560980217}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{944F0AD4-CA79-4CF4-AC55-10A367D78BB5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{802FACE3-C92A-4243-AF25-809E730C95DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2709AD94-71CC-41CE-9842-C69A9791A2B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CECFD5F6-D53B-48F5-8AF4-FDE19E16C5E0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{097AEF1A-B800-4426-9934-1F98ACFD9D71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD3F2BEC-4CE8-4043-BFD6-D27FB9B9750D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0C8B7AB-CAAC-4E51-AC7E-71176F5290A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F566AF03-263B-40D3-AE48-7449D91B591C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0EAE448-31D8-44B9-8DC1-4082CF23C110}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E46BE016-950F-4BB0-B830-6426770A7479}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE00AFD9-6881-42DF-AFC0-59665BA0B963}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B51A5D8-9581-4DBC-BD86-95729959DFC6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{04A83D5A-B09D-4B04-A05D-2D50A8596C21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{319C6DE2-676F-42EE-8ABE-024F1A11A250}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95195E64-F4A2-4011-8CFA-DA0BC7A3CD40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69834A88-87DF-458E-ADB7-3199E1F747C9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7C04A8F2-7642-47BF-BB0C-45F986CE1CA6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE131D22-40DB-4E9B-B0AE-86895EF2D994}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{961BDF60-AFC4-44C0-857C-F580118DE5BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9111,7 +9111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A98BCCA-06FC-404A-98A4-5F8EE82A6396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077BC98E-2CA9-4D14-AB44-DD03C19F1916}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10360,18 +10360,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D927D44F-00D8-40C7-A602-118615112EB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFAE95E4-258B-4AB3-B695-39ADCB9B96D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D949B952-FE09-4FF1-B54E-723C13A7B968}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{051E263E-09A4-4117-B79E-C2FEC84CE1DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55FDB658-BCDE-4226-954B-88BA1C520B8F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5F63134-037F-45DB-88C6-7A005DB34D7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88DBA786-E7FB-4A64-99A0-48F3491C78D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE999B75-3877-472D-9DC0-213D66A06D55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92719116-8B1D-40E7-8DB8-FFC17F5DEE12}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8E697298-0A00-4836-9363-B55BF59E41A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{216B7572-DB1D-482D-937B-FFD3E7A2596E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{144BD939-C311-40D0-8EEB-FCFCFBE461A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E473BD5-DCA0-42EF-9637-79B7B7AEF522}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9C1E65D-447B-4C20-B012-77ECBEF38834}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71628741-675C-4F50-940D-EB41EC18755B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{424BCC7F-C4ED-4B27-9A6B-1FFDB41DA030}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06792DD4-6CA6-450C-A7A2-D8260F25BD1E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2F47EA85-780D-4ACA-BF81-53FA7FBAE772}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E4CAC01-34CF-4081-822A-A81F55E32556}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDA5B756-A98D-4553-8706-53D8FFE926B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88C4E729-232F-4AAD-82C3-7AE4BEFA8EA1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{25AEA9AC-64E9-4629-8979-5459EDA1CBCD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5010EDC-47A8-415C-BD0C-B5DA11F270F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E20944D-E093-492B-AFE3-504CA5651555}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10384,7 +10384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF27445-722C-41D2-9E5C-DA9DF9B3CE61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A88953D-C156-45E5-9CDF-1D9FC63220FE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11633,18 +11633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A21C4800-1D84-4142-AAB2-1AE7074C30D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD4E7F77-E465-4B98-818D-35A1E6DD62FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{749B3B18-63BD-4533-96C9-F6C5DAED9818}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39DBC182-1D98-4AB2-8C7F-CFC3E3E62C84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00BCC92B-C347-4540-AA9F-51C38CA5A472}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9CC8508-46D5-455F-8D8C-2B515891690B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EF78677-CD57-4F4B-B4BC-506E9D705F11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{812389E3-6E80-4F50-A322-71CA25C7EF97}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B5C6045-7AEF-490D-9F47-3AFCFF6041B4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9DB00F42-A2FA-45D6-A5AC-6CE2180900A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1F571A7-4D09-4817-ACBA-822607A27B91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A4D7860-AB1A-4F48-8359-50061E089F26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8453F727-C982-4061-970A-AC5FA9EF8EA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DEB0539-1D07-4C59-8954-EFE9BDC08125}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D54E9DE-7582-4C7A-9175-F55D325A27B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1259FDD-BBD6-4557-9C63-7523E4E32BBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93672885-1256-417B-8341-56C82329694D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1669CA1-A0D7-452C-88BD-0C14F4808861}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39EB750D-2DCC-4009-931C-5C4278A75242}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A62AA1F-0FBA-4333-9A37-0FD24EEFDAD7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A4E30A3-D337-45F5-8B56-9991A51D914F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5C45D58E-46E0-44E8-8040-C67CA2ECD3C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5FF6F92-FD22-4DA3-9865-40D0CDF28F98}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B9C7BC9-D8EE-4871-B7EE-2D5DE8E67ADE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11657,7 +11657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7582946-0978-407D-9D20-CF26CB1D8D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4192344-147E-4D21-AF97-06CC1EA443CD}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12898,18 +12898,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7518C170-0167-472C-A379-E910B09A52B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9B06589-A2FD-488C-8CD4-313D5275FF19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{658555D4-878D-4935-A8D4-8B1FF05091C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8DEC03F-A657-4F9E-8074-9C8410625F40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB232841-4DA1-4AEE-AD61-79DE7BCC4EE1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19C965D2-E8FF-4AE6-BEDA-0747D8587779}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BE17393-5232-43C5-B11D-0B93E1FB9253}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDCB8124-04B0-4AA7-890F-DDD8472F2F4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF92E17D-B6E5-4FF5-92E6-FEC1A171112E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D3EB3C30-6E6E-4820-B9ED-F75781DAEA78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4853C0CC-A866-4DCC-8D0E-835BEC4778CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF3EA8CD-4E1E-4EF2-8417-A57926A15B9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3D73ED4-D72C-4560-A2ED-A519E0460196}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2884FCB-C275-427A-AE0C-D3383A400909}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F100DE3-4CC2-4A39-8415-1144AFEE98EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A6B3B14-EADF-4B32-96CB-BE83E8D3A5AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80D12A7D-4096-4E03-A148-05B864312857}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{893A1F5B-1F2C-4EF4-BEC3-1C6E64DFB5EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A0C393E-72E8-495A-9744-64B4505DFCCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{280B594E-D048-4344-8CBE-3393AE224C6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80C59D99-B5D0-4D62-AEC5-B3EF77FD9928}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8B84D351-9470-4046-8F78-87E001FA32BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6389D2C5-4EC5-42C4-9DD8-180321D7BD58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B702F469-6BCA-4F67-97A9-CC04B502B43A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12922,7 +12922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E7C2E-C42D-4EAB-823D-01BC43790209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF60D1-751D-4D44-AB13-C30E31FC067C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14215,18 +14215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E9F4F92-1BE3-408B-81C2-B8A2A354186A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CC0C5E8-B5C9-4445-8B0D-B1361C7D7312}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42A10888-31DB-461E-BC6C-17631AE8FB12}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FD88A79-2673-4A88-9E53-D9B8DFAF7A0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AA4ACCC-C32B-42E3-92C1-65770D9A2B05}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65CA081F-B98F-4B5D-BC1A-44A5D032315D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D5072B8-4A59-43C0-A561-7EBB7032534A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8B6A08D-AC2A-4CDE-9658-E319803A20E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4B0E27F-E8B4-4716-9E51-D7F9C8844BA5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{25F24FAC-A8A4-400E-98C8-2F9792C84184}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEB209E3-37FE-4634-A42B-6B0F9FE4F468}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11EC723C-EF5D-42B4-912E-C9BBC2CFFF11}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA568C1C-1D7A-46E0-96BE-DF9660EFFE76}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C416A819-0945-40CB-8246-2F9B1C27C52C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34D60954-4948-4FE5-8D42-8615E45AC950}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BB4C14F-0D03-4986-8BDE-122AAD7C33BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4009DAD6-929A-409D-AC86-9D6362F92094}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6328E926-E108-4E93-BF31-7D564913346C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11789C3B-3662-434A-A62B-E04A8AFAC1C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9246264-2D28-4216-BC84-4F2677F3FA71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4283628-60B4-4EEB-8272-E78754EB1014}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA21F59D-EC4F-483B-854F-881BEF9FC87B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F66314D5-5EAB-4342-967C-E3A0C7EA4DC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B95248F-4CAB-4291-96E9-65EF0EC0946C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14239,7 +14239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7842C5-72B7-4C7B-886B-2CA2EBD40643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB80465B-4699-4805-AE8B-ACC1E729CD1E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15532,18 +15532,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{037C4593-6BE3-4F73-9FFE-1E9E8B33D5D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21B77206-0025-4A21-BB39-C7DBF1B4A6DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67DC205B-2CA9-40FD-BA36-767D3B127A66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B553A14-DB3E-45B0-B777-78A587EF6108}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5489B333-0294-4DB1-9387-399FBB385BD6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{850F2347-5DE4-4184-9341-CCAD0DB61698}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{914C3F91-A95D-49EB-A5C3-DD894F555549}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{861816F8-386C-40D8-A1D4-9B000A7014AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9EE3144E-6C54-4865-B376-3EF7B7F5D4A3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EF36705B-504E-4A86-8E13-1A11DF554294}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D61DBEA-63A3-486A-B8B3-323F3971D875}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2AD8DBC9-435D-4252-A638-C5E55909F2EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{298F89F8-DACE-4A91-B38F-BED39015855B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6D1EFDB-F2F5-4BEF-9981-D2070F751A4D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E2BC70D-12BA-4BE6-9197-5C7CC36E6E33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{582B946B-83D0-431D-924C-26A6D82D795B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84665786-B19F-41EC-B9DA-942F15739E35}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0035B9F1-9EB8-4843-9D96-B43C7B14A998}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94B32BC1-51AD-4ADC-BD30-60DE549B2025}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0FAE73A-5298-416A-A546-261EB86D5894}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DDF3774-29DC-454E-87D6-7C5FE1D7B7E7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{696E1725-AC0C-4607-834E-702F0A1DF800}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D855A35E-97B5-4DB2-96FC-C2DB690EC908}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7DB391C-B384-42A2-BA74-D9F4DD2E69E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15556,7 +15556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E04DBF-9379-4B0D-B900-6338C04E703F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEBB1F7-C587-4A4F-9562-621A76395AB2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16849,18 +16849,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93439B22-5164-4EE2-9C77-2AC09C27F811}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B612345-DE77-42EA-ABF4-E5E1EF774337}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46EDCF60-EC08-4135-814D-BFB2269D55E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AAB909D6-6A3C-48CE-9527-3EFEF463AAB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCA43976-FC04-4C1C-A2AA-634749772F30}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE4FD443-40DE-47A5-9B51-5B2269737871}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6833C94-352D-4828-9D08-BC7F2A683807}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44930F4B-4244-4CC1-A9CD-51248CFABF81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{177EF04C-275C-41D8-B865-501C15A4041B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8FE6287B-47E0-43BB-9065-A7F31B8648A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C8C40DB-50A2-41B8-BEDB-D51A88B3F7C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF288F95-39CC-4A62-BB61-6DF403A1C17F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAF897F4-8707-4352-95BD-F44BFFA2C0F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5E93887-B3B3-4DE3-B1E6-FA399D4E86CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A202D2CF-EAEF-4B54-BEBE-1A7D7FA497E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4D6CCA3-C62A-4549-A872-D6E49C15D731}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF5BF93E-21FE-44D8-84C5-323460F32DD8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB167BFD-772A-4190-8080-C4E36A7C5830}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93FA8421-1651-45AC-84E3-FFA5CB94DB2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A52D9C58-1BC1-4DD4-828A-B408443F8AD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{683CB196-9D78-4EEE-82B6-1BDF78C40C03}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7BDB126E-54FB-43A1-B5C6-D15D4FFBD832}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2C85CAC-15EC-4327-A683-F68F473EF13D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1EBA970-87C6-414A-9DC4-F50AFD5BA975}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
